--- a/huffman/futas.xlsx
+++ b/huffman/futas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codeblocks\EGYETEM\parhuzamos\huffman\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A29221F3-ED8F-4F61-ABC7-71BE0D4AD478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AF89B0F-9B2A-469F-97B0-13951BEE80CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,18 +25,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
   <si>
-    <t>str length</t>
+    <t>seq</t>
   </si>
   <si>
-    <t>local_w_s</t>
+    <t>loc_work_g</t>
   </si>
   <si>
-    <t>time(ms)</t>
-  </si>
-  <si>
-    <t>seq</t>
+    <t>length</t>
   </si>
 </sst>
 </file>
@@ -125,26 +122,8 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="hu-HU" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:sysClr>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>Futási idő</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:sysClr>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>(ms)</a:t>
+              <a:rPr lang="hu-HU"/>
+              <a:t>Futási idő(ms)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -181,166 +160,303 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="bar"/>
-        <c:grouping val="clustered"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
+              <c:f>Munka1!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>seq</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Munka1!$B$3:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1014</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1796</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2058</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Munka1!$C$3:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.1000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.82</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3BDD-4064-8C86-B92B469FCE0D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
               <c:f>Munka1!$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>time(ms)</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>Munka1!$B$3:$C$14</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="12"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>4</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>seq</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>4</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>seq</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>4</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>seq</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>4</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>seq</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>5200</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>5200</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>5200</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>1796</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>1796</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>1796</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>500</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>500</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>500</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>48</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>48</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>48</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
+            <c:numRef>
+              <c:f>Munka1!$B$3:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1014</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1796</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2058</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Munka1!$D$3:$D$14</c:f>
+              <c:f>Munka1!$D$3:$D$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.88</c:v>
+                  <c:v>2.8000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.88</c:v>
+                  <c:v>0.40200000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9</c:v>
+                  <c:v>0.53200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.64300000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.20399999999999999</c:v>
+                  <c:v>1.032</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1499999999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.40200000000000002</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.311</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.56999999999999995</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.8000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.9E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.04</c:v>
+                  <c:v>1.88</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-893A-4103-A4EC-5F39CC290010}"/>
+              <c16:uniqueId val="{00000001-3BDD-4064-8C86-B92B469FCE0D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Munka1!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Munka1!$B$3:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1014</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1796</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2058</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Munka1!$E$3:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.311</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.152</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.20399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.32400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.88</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3BDD-4064-8C86-B92B469FCE0D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -352,17 +468,18 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="182"/>
-        <c:axId val="1799580496"/>
-        <c:axId val="1799581456"/>
-      </c:barChart>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1537397552"/>
+        <c:axId val="1537394192"/>
+      </c:lineChart>
       <c:catAx>
-        <c:axId val="1799580496"/>
+        <c:axId val="1537397552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="l"/>
+        <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -400,7 +517,7 @@
             <a:endParaRPr lang="hu-HU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1799581456"/>
+        <c:crossAx val="1537394192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -408,12 +525,14 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1799581456"/>
+        <c:axId val="1537394192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="4"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="b"/>
+        <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -459,9 +578,10 @@
             <a:endParaRPr lang="hu-HU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1799580496"/>
+        <c:crossAx val="1537397552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="0.30000000000000004"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -471,6 +591,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="hu-HU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -556,7 +707,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -760,23 +911,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -881,8 +1031,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1014,20 +1164,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1064,23 +1213,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>518160</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>163830</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Diagram 4">
+        <xdr:cNvPr id="2" name="Diagram 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55D65877-EB36-4B72-F3B6-0F5A8C781CF4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3E81215-FBE2-255E-4B66-882CA82B5639}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1364,155 +1513,118 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:D14"/>
+  <dimension ref="B1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="D2">
         <v>2</v>
       </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3">
-        <v>5200</v>
+        <v>48</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="D3">
-        <v>1.88</v>
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="E3">
+        <v>3.9E-2</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4">
-        <v>5200</v>
+        <v>500</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="D4">
-        <v>0.88</v>
+        <v>0.40200000000000002</v>
+      </c>
+      <c r="E4">
+        <v>0.311</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5">
-        <v>5200</v>
-      </c>
-      <c r="C5" t="s">
-        <v>3</v>
+        <v>1014</v>
+      </c>
+      <c r="C5">
+        <v>0.78</v>
       </c>
       <c r="D5">
-        <v>9</v>
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="E5">
+        <v>0.152</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>1796</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="D6">
         <v>0.64300000000000002</v>
       </c>
+      <c r="E6">
+        <v>0.20399999999999999</v>
+      </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7">
-        <v>1796</v>
+        <v>2058</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>1.82</v>
       </c>
       <c r="D7">
-        <v>0.20399999999999999</v>
+        <v>1.032</v>
+      </c>
+      <c r="E7">
+        <v>0.32400000000000001</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8">
-        <v>1796</v>
-      </c>
-      <c r="C8" t="s">
-        <v>3</v>
+        <v>5200</v>
+      </c>
+      <c r="C8">
+        <v>9.1</v>
       </c>
       <c r="D8">
-        <v>1.1499999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B9">
-        <v>500</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9">
-        <v>0.40200000000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B10">
-        <v>500</v>
-      </c>
-      <c r="C10">
-        <v>4</v>
-      </c>
-      <c r="D10">
-        <v>0.311</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B11">
-        <v>500</v>
-      </c>
-      <c r="C11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11">
-        <v>0.56999999999999995</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B12">
-        <v>48</v>
-      </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-      <c r="D12">
-        <v>2.8000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B13">
-        <v>48</v>
-      </c>
-      <c r="C13">
-        <v>4</v>
-      </c>
-      <c r="D13">
-        <v>3.9E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B14">
-        <v>48</v>
-      </c>
-      <c r="C14" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14">
-        <v>0.04</v>
+        <v>1.88</v>
+      </c>
+      <c r="E8">
+        <v>0.88</v>
       </c>
     </row>
   </sheetData>
